--- a/results/mp/deberta/corona/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
@@ -139,13 +139,13 @@
     <t>ensure</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>healthy</t>
   </si>
   <si>
     <t>safe</t>
@@ -1679,25 +1679,25 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6578947368421053</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L27">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1705,25 +1705,25 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6521739130434783</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1731,13 +1731,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.6296296296296297</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1939,25 +1939,25 @@
         <v>51</v>
       </c>
       <c r="K37">
-        <v>0.5410334346504559</v>
+        <v>0.5235294117647059</v>
       </c>
       <c r="L37">
         <v>178</v>
       </c>
       <c r="M37">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N37">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="10:17">
